--- a/src/main/resources/template/excel/export/PurExpireFormBySupplier.xlsx
+++ b/src/main/resources/template/excel/export/PurExpireFormBySupplier.xlsx
@@ -134,10 +134,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
     <numFmt numFmtId="177" formatCode="0_ ;[Red]\-0\ "/>
     <numFmt numFmtId="178" formatCode="0.0000_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_ ;[Red]\-0.00\ "/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -259,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -278,13 +279,16 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -604,21 +608,21 @@
     <col min="3" max="3" width="15.625" style="2" customWidth="1"/>
     <col min="4" max="4" width="25.875" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.75" style="5" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.375" style="2" customWidth="1"/>
     <col min="7" max="7" width="21.375" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -656,10 +660,10 @@
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="6" t="s">
@@ -673,10 +677,10 @@
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="11" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="4"/>
